--- a/traceability matrix/traceability matrix.xlsx
+++ b/traceability matrix/traceability matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C90587-A7C9-44F9-A197-8D3C587DBBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB90B7C8-5A19-4CD6-8A00-29FEE875E464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Requirement description</t>
   </si>
@@ -150,9 +150,6 @@
     </r>
   </si>
   <si>
-    <t>visual prompt</t>
-  </si>
-  <si>
     <t>user interaction</t>
   </si>
   <si>
@@ -212,12 +209,60 @@
       <t>ing patient conditions, user responses, and outcomes to test your software.</t>
     </r>
   </si>
+  <si>
+    <t>mainwindow.ui</t>
+  </si>
+  <si>
+    <t>device.cpp</t>
+  </si>
+  <si>
+    <t>device.cpp patient.cpp</t>
+  </si>
+  <si>
+    <t>device.cpp mainwindow.cpp</t>
+  </si>
+  <si>
+    <t>device.cpp mainwindow.ui</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>heart_rhythm_analysis()</t>
+  </si>
+  <si>
+    <t>getter for patient</t>
+  </si>
+  <si>
+    <t>shock()'s if statement</t>
+  </si>
+  <si>
+    <t>cpr_analysis() and on_press_breath/chest</t>
+  </si>
+  <si>
+    <t>on_press_breath/chest</t>
+  </si>
+  <si>
+    <t>visual/audio prompt</t>
+  </si>
+  <si>
+    <t>textbox_update methods in mainwindow + signals for tansmit strings</t>
+  </si>
+  <si>
+    <t>buttons</t>
+  </si>
+  <si>
+    <t>qdebug for outputs</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,11 +281,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,16 +320,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -310,63 +350,63 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,14 +480,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -456,7 +501,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FA417E-299A-49FC-8D42-BC2DB1DDCDC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -496,20 +541,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -518,7 +568,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B2B04A-9D48-4A2F-A19B-01CD798E7A9F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -558,20 +608,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -580,7 +635,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27592238-3F44-4CBF-B720-B35F233AF04B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -620,20 +675,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -642,7 +702,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9300975-9F6D-4A9E-AA63-BEC08A014D66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -682,20 +742,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -704,7 +769,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31DF1FD9-2DA3-4427-A894-98EF32282CAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -744,20 +809,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -766,7 +836,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219011EB-5A9C-4ED2-8EA7-189C11DAACDD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -806,20 +876,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -828,7 +903,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E10455B-E344-49AE-B416-C5067AA9CED2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -868,20 +943,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -890,7 +970,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D326C31-8E5E-4B62-B957-02C7FA67DF70}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -930,20 +1010,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -952,7 +1037,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E740875-F221-48E9-B3AC-1520BE0346D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -992,20 +1077,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -1014,7 +1104,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A93F771-A4DE-433A-ADDF-EA1B6C584CEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1054,20 +1144,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -1076,7 +1171,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6CA7B6-7EFF-4D2F-A7D4-D273AF651BB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1116,20 +1211,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1138,7 +1238,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6C1B3F-6E38-4900-9171-9AF0B33CDCA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1178,20 +1278,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -1200,7 +1305,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F3BC48-4552-434D-8058-CCBA780021B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1240,20 +1345,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -1262,7 +1372,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4515E7-B0AD-45AE-96A6-39F1BBCC8C97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1302,7 +1412,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1575,8 +1685,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1590,240 +1700,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
